--- a/example/__tests__/api/testResults.xlsx
+++ b/example/__tests__/api/testResults.xlsx
@@ -445,13 +445,13 @@
         <v>/api/test</v>
       </c>
       <c r="F2" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G2" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -471,13 +471,13 @@
         <v>/api/test</v>
       </c>
       <c r="F3" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G3" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -497,13 +497,13 @@
         <v>/api/test</v>
       </c>
       <c r="F4" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G4" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -523,13 +523,13 @@
         <v>/api/invalidEntity</v>
       </c>
       <c r="F5" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G5" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -549,13 +549,13 @@
         <v>/api/test</v>
       </c>
       <c r="F6" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G6" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -575,13 +575,13 @@
         <v>/api/</v>
       </c>
       <c r="F7" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G7" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -601,13 +601,13 @@
         <v>/api/test</v>
       </c>
       <c r="F8" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G8" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -627,13 +627,13 @@
         <v>/api/test</v>
       </c>
       <c r="F9" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G9" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -653,13 +653,13 @@
         <v>/api/test</v>
       </c>
       <c r="F10" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G10" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -679,13 +679,13 @@
         <v>/api/test</v>
       </c>
       <c r="F11" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G11" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
@@ -705,13 +705,13 @@
         <v>/api/test</v>
       </c>
       <c r="F12" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G12" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -731,13 +731,13 @@
         <v>/api/test</v>
       </c>
       <c r="F13" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G13" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -757,13 +757,13 @@
         <v>/api/test/update/validEntityId</v>
       </c>
       <c r="F14" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G14" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         <v>/api/test/update/validEntityId</v>
       </c>
       <c r="F15" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G15" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -809,13 +809,13 @@
         <v>/api/test/update/validEntityId</v>
       </c>
       <c r="F16" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G16" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -835,13 +835,13 @@
         <v>/api/invalidEntity/update/validEntityId</v>
       </c>
       <c r="F17" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G17" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -861,13 +861,13 @@
         <v>/api/test/update/invalidEntityId</v>
       </c>
       <c r="F18" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G18" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -887,13 +887,13 @@
         <v>/api/test/update/validNonExistsEntityId</v>
       </c>
       <c r="F19" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G19" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -913,13 +913,13 @@
         <v>/api/test/update/validEntityId</v>
       </c>
       <c r="F20" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G20" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -939,13 +939,13 @@
         <v>/api//update/validEntityId</v>
       </c>
       <c r="F21" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G21" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -965,13 +965,13 @@
         <v>/api/test/update/</v>
       </c>
       <c r="F22" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G22" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -991,13 +991,13 @@
         <v>/api/test/update/validEntityId</v>
       </c>
       <c r="F23" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G23" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1017,13 +1017,13 @@
         <v>/api/test/update/validEntityId</v>
       </c>
       <c r="F24" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G24" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1043,13 +1043,13 @@
         <v>/api/test/update/validEntityId</v>
       </c>
       <c r="F25" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G25" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1069,13 +1069,13 @@
         <v>/api/test/update/validEntityId</v>
       </c>
       <c r="F26" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G26" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
@@ -1095,13 +1095,13 @@
         <v>/api/test/update/1 OR 1=1</v>
       </c>
       <c r="F27" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G27" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -1121,13 +1121,13 @@
         <v>/api/test/update/validEntityId</v>
       </c>
       <c r="F28" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G28" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1147,13 +1147,13 @@
         <v>/api/test/exists/validEntityId</v>
       </c>
       <c r="F29" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G29" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1173,13 +1173,13 @@
         <v>/api/test/exists/invalidEntityId</v>
       </c>
       <c r="F30" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G30" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1199,13 +1199,13 @@
         <v>/api/test/exists/validNonExistsEntityId</v>
       </c>
       <c r="F31" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G31" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -1225,13 +1225,13 @@
         <v>/api/invalidEntity/exists/validEntityId</v>
       </c>
       <c r="F32" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G32" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1251,13 +1251,13 @@
         <v>/api/test/exists/validEntityId</v>
       </c>
       <c r="F33" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G33" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -1277,13 +1277,13 @@
         <v>/api//exists/validEntityId</v>
       </c>
       <c r="F34" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G34" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1303,13 +1303,13 @@
         <v>/api/test/exists/</v>
       </c>
       <c r="F35" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G35" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1329,13 +1329,13 @@
         <v>/api/test/exists/validEntityId</v>
       </c>
       <c r="F36" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G36" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1355,13 +1355,13 @@
         <v>/api/test/exists/validEntityId</v>
       </c>
       <c r="F37" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G37" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -1381,13 +1381,13 @@
         <v>/api/invalidEntity/exists/validEntityId</v>
       </c>
       <c r="F38" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G38" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1407,13 +1407,13 @@
         <v>/api/test/exists/invalidEntityId</v>
       </c>
       <c r="F39" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G39" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -1433,13 +1433,13 @@
         <v>/api/test/exists/validEntityId</v>
       </c>
       <c r="F40" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G40" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -1459,13 +1459,13 @@
         <v>/api/test/exists/validEntityId</v>
       </c>
       <c r="F41" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G41" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42">
@@ -1485,13 +1485,13 @@
         <v>/api/test/exists/1 OR 1=1</v>
       </c>
       <c r="F42" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G42" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -1511,13 +1511,13 @@
         <v>/api/test/exists/&lt;script&gt;alert("XSS")&lt;/script&gt;</v>
       </c>
       <c r="F43" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G43" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -1537,13 +1537,13 @@
         <v>/api/test/exists</v>
       </c>
       <c r="F44" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G44" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -1563,13 +1563,13 @@
         <v>/api/test/exists</v>
       </c>
       <c r="F45" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G45" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -1589,13 +1589,13 @@
         <v>/api/test/exists</v>
       </c>
       <c r="F46" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G46" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
@@ -1615,13 +1615,13 @@
         <v>/api/invalidEntity/exists</v>
       </c>
       <c r="F47" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G47" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -1641,13 +1641,13 @@
         <v>/api/test/exists</v>
       </c>
       <c r="F48" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G48" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -1667,13 +1667,13 @@
         <v>/api//exists</v>
       </c>
       <c r="F49" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G49" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -1693,13 +1693,13 @@
         <v>/api/test/exists</v>
       </c>
       <c r="F50" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G50" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -1719,13 +1719,13 @@
         <v>/api/test/exists</v>
       </c>
       <c r="F51" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G51" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -1745,13 +1745,13 @@
         <v>/api/test/exists</v>
       </c>
       <c r="F52" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G52" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -1771,13 +1771,13 @@
         <v>/api/test/exists</v>
       </c>
       <c r="F53" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G53" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54">
@@ -1797,13 +1797,13 @@
         <v>/api/test/exists</v>
       </c>
       <c r="F54" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G54" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -1823,13 +1823,13 @@
         <v>/api/test/exists</v>
       </c>
       <c r="F55" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G55" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -1849,13 +1849,13 @@
         <v>/api/test/validEntityId</v>
       </c>
       <c r="F56" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G56" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -1875,13 +1875,13 @@
         <v>/api/test/invalidEntityId</v>
       </c>
       <c r="F57" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G57" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -1901,13 +1901,13 @@
         <v>/api/test/validNonExistsEntityId</v>
       </c>
       <c r="F58" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G58" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -1927,13 +1927,13 @@
         <v>/api/invalidEntity/validEntityId</v>
       </c>
       <c r="F59" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G59" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -1953,13 +1953,13 @@
         <v>/api/test/validEntityId</v>
       </c>
       <c r="F60" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G60" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -1979,13 +1979,13 @@
         <v>/api//validEntityId</v>
       </c>
       <c r="F61" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G61" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -2005,13 +2005,13 @@
         <v>/api/test/</v>
       </c>
       <c r="F62" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G62" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -2031,13 +2031,13 @@
         <v>/api/test/validEntityId</v>
       </c>
       <c r="F63" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G63" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -2057,13 +2057,13 @@
         <v>/api/test/validEntityId</v>
       </c>
       <c r="F64" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G64" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -2083,13 +2083,13 @@
         <v>/api/invalidEntity/validEntityId</v>
       </c>
       <c r="F65" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G65" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -2109,13 +2109,13 @@
         <v>/api/test/invalidEntityId</v>
       </c>
       <c r="F66" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G66" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
@@ -2135,13 +2135,13 @@
         <v>/api/test/validEntityId</v>
       </c>
       <c r="F67" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G67" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
@@ -2161,13 +2161,13 @@
         <v>/api/test/validEntityId</v>
       </c>
       <c r="F68" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G68" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69">
@@ -2187,13 +2187,13 @@
         <v>/api/test/1 OR 1=1</v>
       </c>
       <c r="F69" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G69" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -2213,13 +2213,13 @@
         <v>/api/test/&lt;script&gt;alert("XSS")&lt;/script&gt;</v>
       </c>
       <c r="F70" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G70" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -2239,13 +2239,13 @@
         <v>/api/test/all</v>
       </c>
       <c r="F71" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G71" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
@@ -2265,13 +2265,13 @@
         <v>/api/invalidEntity/all</v>
       </c>
       <c r="F72" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G72" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -2291,13 +2291,13 @@
         <v>/api/test/all</v>
       </c>
       <c r="F73" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G73" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
@@ -2317,13 +2317,13 @@
         <v>/api//all</v>
       </c>
       <c r="F74" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G74" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75">
@@ -2343,13 +2343,13 @@
         <v>/api/test/all</v>
       </c>
       <c r="F75" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G75" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -2369,13 +2369,13 @@
         <v>/api/test/all</v>
       </c>
       <c r="F76" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G76" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
@@ -2395,13 +2395,13 @@
         <v>/api/test/all</v>
       </c>
       <c r="F77" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G77" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78">
@@ -2421,13 +2421,13 @@
         <v>/api/test/by-params</v>
       </c>
       <c r="F78" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G78" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79">
@@ -2447,13 +2447,13 @@
         <v>/api/invalidEntity/by-params</v>
       </c>
       <c r="F79" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G79" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -2473,13 +2473,13 @@
         <v>/api/test/by-params</v>
       </c>
       <c r="F80" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G80" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -2499,13 +2499,13 @@
         <v>/api//by-params</v>
       </c>
       <c r="F81" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G81" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
@@ -2525,13 +2525,13 @@
         <v>/api/test/by-params</v>
       </c>
       <c r="F82" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G82" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83">
@@ -2551,13 +2551,13 @@
         <v>/api/test/by-params</v>
       </c>
       <c r="F83" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G83" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -2577,13 +2577,13 @@
         <v>/api/test/by-params</v>
       </c>
       <c r="F84" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G84" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -2603,13 +2603,13 @@
         <v>/api/test/by-params</v>
       </c>
       <c r="F85" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G85" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
@@ -2629,13 +2629,13 @@
         <v>/api/test/by-params</v>
       </c>
       <c r="F86" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G86" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87">
@@ -2655,13 +2655,13 @@
         <v>/api/test/by-params</v>
       </c>
       <c r="F87" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G87" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
@@ -2681,13 +2681,13 @@
         <v>/api/test/by-params</v>
       </c>
       <c r="F88" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G88" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
@@ -2707,13 +2707,13 @@
         <v>/api/test/count</v>
       </c>
       <c r="F89" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G89" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
@@ -2733,13 +2733,13 @@
         <v>/api/test/count</v>
       </c>
       <c r="F90" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G90" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
@@ -2759,13 +2759,13 @@
         <v>/api/test/count</v>
       </c>
       <c r="F91" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G91" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -2785,13 +2785,13 @@
         <v>/api/test/count</v>
       </c>
       <c r="F92" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G92" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
@@ -2811,13 +2811,13 @@
         <v>/api/test/count</v>
       </c>
       <c r="F93" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G93" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94">
@@ -2837,13 +2837,13 @@
         <v>/api/test/count</v>
       </c>
       <c r="F94" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G94" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95">
@@ -2863,13 +2863,13 @@
         <v>/api/test/count</v>
       </c>
       <c r="F95" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G95" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
@@ -2889,13 +2889,13 @@
         <v>/api/test/validEntityId</v>
       </c>
       <c r="F96" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G96" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
@@ -2915,13 +2915,13 @@
         <v>/api/test/invalidEntityId</v>
       </c>
       <c r="F97" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G97" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98">
@@ -2941,13 +2941,13 @@
         <v>/api/test/validNonExistsEntityId</v>
       </c>
       <c r="F98" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G98" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
@@ -2967,13 +2967,13 @@
         <v>/api/invalidEntity/validEntityId</v>
       </c>
       <c r="F99" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G99" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
@@ -2993,13 +2993,13 @@
         <v>/api/test/validEntityId</v>
       </c>
       <c r="F100" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G100" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -3019,13 +3019,13 @@
         <v>/api//validEntityId</v>
       </c>
       <c r="F101" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G101" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
@@ -3045,13 +3045,13 @@
         <v>/api/test/</v>
       </c>
       <c r="F102" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G102" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
@@ -3071,13 +3071,13 @@
         <v>/api/test/validEntityId</v>
       </c>
       <c r="F103" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G103" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
@@ -3097,13 +3097,13 @@
         <v>/api/test/1 OR 1=1</v>
       </c>
       <c r="F104" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G104" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105">
@@ -3123,13 +3123,13 @@
         <v>/api/test/&lt;script&gt;alert("XSS")&lt;/script&gt;</v>
       </c>
       <c r="F105" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G105" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106">
@@ -3149,13 +3149,13 @@
         <v>/api/time/get</v>
       </c>
       <c r="F106" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G106" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107">
@@ -3175,13 +3175,13 @@
         <v>/api/health</v>
       </c>
       <c r="F107" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G107" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108">
@@ -3201,13 +3201,13 @@
         <v>/api/init</v>
       </c>
       <c r="F108" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G108" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109">
@@ -3227,13 +3227,13 @@
         <v>/api/auth/csrf</v>
       </c>
       <c r="F109" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G109" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>286</v>
       </c>
     </row>
     <row r="110">
@@ -3253,13 +3253,13 @@
         <v>/api/smart-db-auth/get-challengue</v>
       </c>
       <c r="F110" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G110" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111">
@@ -3279,13 +3279,13 @@
         <v>/api/smart-db-auth/get-challengue</v>
       </c>
       <c r="F111" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G111" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
@@ -3305,13 +3305,13 @@
         <v>/api/smart-db-auth/get-token</v>
       </c>
       <c r="F112" t="str">
-        <v>failed</v>
+        <v>passed</v>
       </c>
       <c r="G112" t="str">
-        <v>Error: Count entity failed</v>
+        <v/>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
